--- a/Outputs/Emission_Summary_PERMIANout.xlsx
+++ b/Outputs/Emission_Summary_PERMIANout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jruthe\BU_methane_model\Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B819CD68-C1E3-4FF1-8DE7-C0300C6761A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D0261A4-E3B9-41E1-948B-05572594F2EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9615" xr2:uid="{0D03CA3A-3D25-4E58-9A80-B8430641427C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9615" xr2:uid="{0F64150B-27A8-4BF5-8AE7-D3E05A7FCE15}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA25C4E3-88DC-42F5-A264-397B04C90DDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950254B1-2858-440C-B019-6FC761CCF055}">
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -454,10 +454,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.6595430413417482E-2</v>
+        <v>1.4757983694818918E-2</v>
       </c>
       <c r="C2">
-        <v>4.3799500567000584E-2</v>
+        <v>5.239820010929571E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.6278718066000078E-4</v>
+        <v>4.3283719946499947E-4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -476,10 +476,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.2983434492825081E-3</v>
+        <v>1.1743833068070092E-3</v>
       </c>
       <c r="C4">
-        <v>6.9769327608493591E-3</v>
+        <v>1.2054150216426602E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.2242222554115527E-2</v>
+        <v>1.097501104862853E-2</v>
       </c>
       <c r="C5">
-        <v>3.9360577685299908E-2</v>
+        <v>3.8336308322254174E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>4.4363093210990018E-3</v>
+        <v>4.6168443208594824E-3</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>3.6838685265870182E-3</v>
+        <v>2.1441427380900131E-3</v>
       </c>
       <c r="C7">
-        <v>1.9968333518612776E-2</v>
+        <v>2.1593359844230203E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -520,10 +520,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2.8834379093024675E-2</v>
+        <v>3.3099041671384652E-2</v>
       </c>
       <c r="C8">
-        <v>0.15552107883602814</v>
+        <v>0.16387991142184008</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -531,7 +531,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.3854080152335012E-3</v>
+        <v>8.8491818994149976E-4</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>5.0197300249999995E-6</v>
+        <v>1.4885263925000002E-6</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>3.9529884910750176E-3</v>
+        <v>4.1494499440150297E-3</v>
       </c>
       <c r="C11">
-        <v>2.1374639312979369E-2</v>
+        <v>2.0629619761904621E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -564,10 +564,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2.6608182721558238E-2</v>
+        <v>3.0761016387854435E-2</v>
       </c>
       <c r="C12">
-        <v>0.1283183685224055</v>
+        <v>0.12192541730105945</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>6.9256924999999991E-6</v>
+        <v>1.44213982E-5</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>9.8299999999999998E-2</v>
+        <v>1.3930385076390757E-2</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>5.9505585000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>5.9823158140999928E-2</v>
+        <v>4.975552809545003E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -630,10 +630,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>8.5109018305570716E-2</v>
+        <v>0.10318130996133078</v>
       </c>
       <c r="C18">
-        <v>0.10748125669096605</v>
+        <v>0.16611140517099435</v>
       </c>
     </row>
   </sheetData>
